--- a/data/EurA1c_report.xlsx
+++ b/data/EurA1c_report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coko2\Data Science\Proof Of Concept DS\EurA1c-data\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\femke\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4F5A89-8E9E-4D34-A6DA-165A350535A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8E56BE-DFE1-4120-A2EF-8FF172D75BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="122">
   <si>
     <t>Method</t>
   </si>
@@ -169,34 +169,7 @@
     <t>(part of cobas 6000/8000) Roche Diagnostics cobas c 513</t>
   </si>
   <si>
-    <t>Roche Diagnostics cobas c 513 Roche Diagnostics cobas c311/c111</t>
-  </si>
-  <si>
-    <t>Roche Diagnostics cobas c311/c111 Roche Diagnostics cobas Integra</t>
-  </si>
-  <si>
-    <t>Roche Diagnostics cobas Integra Roche Diagnostics not specified</t>
-  </si>
-  <si>
-    <t>Roche Diagnostics not specified Sebia CAPILLARYS 2</t>
-  </si>
-  <si>
-    <t>Sebia CAPILLARYS 2 Sebia CAPILLARYS 3</t>
-  </si>
-  <si>
-    <t>Sebia CAPILLARYS 3 Sebia MINICAP</t>
-  </si>
-  <si>
     <t>Sebia MINICAP Sebia not specified</t>
-  </si>
-  <si>
-    <t>Sebia not specified Siemens DCA 2000/Vantage</t>
-  </si>
-  <si>
-    <t>Siemens DCA 2000/Vantage Siemens Dimension series</t>
-  </si>
-  <si>
-    <t>Siemens Dimension series Sysmex bx-3010</t>
   </si>
   <si>
     <t>Abbott/Alere Afinion</t>
@@ -410,6 +383,12 @@
   </si>
   <si>
     <t>Siemens Advia not specified</t>
+  </si>
+  <si>
+    <t>Roche Diagnostics cobas c311/c111</t>
+  </si>
+  <si>
+    <t>Sysmex bx-3010</t>
   </si>
 </sst>
 </file>
@@ -784,15 +763,15 @@
   <dimension ref="A1:J515"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.6328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="105.77734375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -824,7 +803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>47</v>
       </c>
@@ -856,7 +835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>47</v>
       </c>
@@ -888,9 +867,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -920,9 +899,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>15</v>
@@ -952,9 +931,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>12</v>
@@ -984,9 +963,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>12</v>
@@ -1016,9 +995,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B8">
         <v>33</v>
@@ -1048,9 +1027,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B9">
         <v>34</v>
@@ -1080,9 +1059,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B10">
         <v>35</v>
@@ -1112,9 +1091,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B11">
         <v>35</v>
@@ -1144,7 +1123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -1176,7 +1155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1208,7 +1187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1240,7 +1219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
@@ -1272,7 +1251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>43</v>
       </c>
@@ -1304,7 +1283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -1336,7 +1315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -1368,7 +1347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>43</v>
       </c>
@@ -1400,7 +1379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
@@ -1432,7 +1411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>43</v>
       </c>
@@ -1464,7 +1443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>43</v>
       </c>
@@ -1496,7 +1475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>43</v>
       </c>
@@ -1528,9 +1507,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>31</v>
@@ -1560,9 +1539,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>31</v>
@@ -1592,9 +1571,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B26">
         <v>21</v>
@@ -1624,9 +1603,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B27">
         <v>21</v>
@@ -1656,9 +1635,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B28">
         <v>24</v>
@@ -1688,9 +1667,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B29">
         <v>24</v>
@@ -1720,9 +1699,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B30">
         <v>21</v>
@@ -1752,9 +1731,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B31">
         <v>21</v>
@@ -1784,9 +1763,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B32">
         <v>6</v>
@@ -1816,9 +1795,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B33">
         <v>6</v>
@@ -1848,9 +1827,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B34">
         <v>17</v>
@@ -1880,9 +1859,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B35">
         <v>17</v>
@@ -1912,9 +1891,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B36">
         <v>24</v>
@@ -1944,9 +1923,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B37">
         <v>24</v>
@@ -1976,9 +1955,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B38">
         <v>29</v>
@@ -2008,9 +1987,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>29</v>
@@ -2040,9 +2019,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -2072,9 +2051,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>39</v>
@@ -2104,9 +2083,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B42">
         <v>72</v>
@@ -2136,9 +2115,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B43">
         <v>71</v>
@@ -2168,9 +2147,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B44">
         <v>6</v>
@@ -2200,9 +2179,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B45">
         <v>6</v>
@@ -2232,9 +2211,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B46">
         <v>142</v>
@@ -2264,9 +2243,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B47">
         <v>141</v>
@@ -2296,9 +2275,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>150</v>
@@ -2328,9 +2307,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B49">
         <v>147</v>
@@ -2360,7 +2339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>17</v>
       </c>
@@ -2392,7 +2371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>17</v>
       </c>
@@ -2424,7 +2403,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>17</v>
       </c>
@@ -2456,7 +2435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>17</v>
       </c>
@@ -2488,7 +2467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>17</v>
       </c>
@@ -2520,7 +2499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>17</v>
       </c>
@@ -2552,9 +2531,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B56">
         <v>26</v>
@@ -2584,9 +2563,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B57">
         <v>26</v>
@@ -2616,9 +2595,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>32</v>
@@ -2648,9 +2627,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>33</v>
@@ -2680,9 +2659,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>7</v>
@@ -2712,9 +2691,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B61">
         <v>6</v>
@@ -2744,9 +2723,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B62">
         <v>9</v>
@@ -2776,9 +2755,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B63">
         <v>9</v>
@@ -2808,7 +2787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>23</v>
       </c>
@@ -2840,7 +2819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>23</v>
       </c>
@@ -2872,7 +2851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>23</v>
       </c>
@@ -2904,7 +2883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>23</v>
       </c>
@@ -2936,7 +2915,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>23</v>
       </c>
@@ -2968,7 +2947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>23</v>
       </c>
@@ -3000,7 +2979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>23</v>
       </c>
@@ -3032,7 +3011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>23</v>
       </c>
@@ -3064,7 +3043,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>23</v>
       </c>
@@ -3096,7 +3075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>23</v>
       </c>
@@ -3128,7 +3107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>23</v>
       </c>
@@ -3160,7 +3139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>23</v>
       </c>
@@ -3192,9 +3171,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B76">
         <v>14</v>
@@ -3224,9 +3203,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>14</v>
@@ -3256,9 +3235,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B78">
         <v>6</v>
@@ -3288,9 +3267,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B79">
         <v>6</v>
@@ -3320,9 +3299,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B80">
         <v>15</v>
@@ -3352,9 +3331,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B81">
         <v>15</v>
@@ -3384,9 +3363,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B82">
         <v>17</v>
@@ -3416,9 +3395,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B83">
         <v>17</v>
@@ -3448,7 +3427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>36</v>
       </c>
@@ -3480,7 +3459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>36</v>
       </c>
@@ -3512,7 +3491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>36</v>
       </c>
@@ -3544,7 +3523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>36</v>
       </c>
@@ -3576,7 +3555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>36</v>
       </c>
@@ -3608,7 +3587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>36</v>
       </c>
@@ -3640,9 +3619,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B90">
         <v>7</v>
@@ -3672,9 +3651,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B91">
         <v>7</v>
@@ -3704,7 +3683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>44</v>
       </c>
@@ -3736,7 +3715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>44</v>
       </c>
@@ -3768,9 +3747,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B94">
         <v>16</v>
@@ -3800,9 +3779,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B95">
         <v>19</v>
@@ -3832,9 +3811,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B96">
         <v>11</v>
@@ -3864,9 +3843,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B97">
         <v>11</v>
@@ -3896,9 +3875,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B98">
         <v>37</v>
@@ -3928,9 +3907,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B99">
         <v>36</v>
@@ -3960,9 +3939,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B100">
         <v>53</v>
@@ -3992,9 +3971,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B101">
         <v>53</v>
@@ -4024,9 +4003,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B102">
         <v>39</v>
@@ -4056,9 +4035,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B103">
         <v>39</v>
@@ -4088,9 +4067,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B104">
         <v>59</v>
@@ -4120,9 +4099,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B105">
         <v>60</v>
@@ -4152,7 +4131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>24</v>
       </c>
@@ -4184,7 +4163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>24</v>
       </c>
@@ -4216,7 +4195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>24</v>
       </c>
@@ -4248,7 +4227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>24</v>
       </c>
@@ -4280,7 +4259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>24</v>
       </c>
@@ -4312,7 +4291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>24</v>
       </c>
@@ -4344,7 +4323,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>24</v>
       </c>
@@ -4376,7 +4355,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>24</v>
       </c>
@@ -4408,7 +4387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>24</v>
       </c>
@@ -4440,7 +4419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>24</v>
       </c>
@@ -4472,7 +4451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>24</v>
       </c>
@@ -4504,7 +4483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>24</v>
       </c>
@@ -4536,9 +4515,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B118">
         <v>18</v>
@@ -4568,9 +4547,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B119">
         <v>18</v>
@@ -4600,9 +4579,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B120">
         <v>19</v>
@@ -4632,9 +4611,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B121">
         <v>19</v>
@@ -4664,7 +4643,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>25</v>
       </c>
@@ -4696,7 +4675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>25</v>
       </c>
@@ -4728,7 +4707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>25</v>
       </c>
@@ -4760,7 +4739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>25</v>
       </c>
@@ -4792,7 +4771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>25</v>
       </c>
@@ -4824,7 +4803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>25</v>
       </c>
@@ -4856,7 +4835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>25</v>
       </c>
@@ -4888,7 +4867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>25</v>
       </c>
@@ -4920,7 +4899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>25</v>
       </c>
@@ -4952,7 +4931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>25</v>
       </c>
@@ -4984,7 +4963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>25</v>
       </c>
@@ -5016,7 +4995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>25</v>
       </c>
@@ -5048,9 +5027,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B134">
         <v>115</v>
@@ -5080,9 +5059,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B135">
         <v>114</v>
@@ -5112,9 +5091,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B136">
         <v>53</v>
@@ -5144,9 +5123,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B137">
         <v>53</v>
@@ -5176,9 +5155,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B138">
         <v>47</v>
@@ -5208,9 +5187,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B139">
         <v>47</v>
@@ -5240,9 +5219,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B140">
         <v>10</v>
@@ -5272,9 +5251,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B141">
         <v>10</v>
@@ -5304,9 +5283,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B142">
         <v>38</v>
@@ -5336,9 +5315,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B143">
         <v>40</v>
@@ -5368,9 +5347,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B144">
         <v>86</v>
@@ -5400,9 +5379,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B145">
         <v>86</v>
@@ -5432,9 +5411,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B146">
         <v>37</v>
@@ -5464,9 +5443,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B147">
         <v>37</v>
@@ -5496,9 +5475,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B148">
         <v>112</v>
@@ -5528,9 +5507,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B149">
         <v>112</v>
@@ -5560,7 +5539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>26</v>
       </c>
@@ -5592,7 +5571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>26</v>
       </c>
@@ -5624,7 +5603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -5656,7 +5635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -5688,7 +5667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>26</v>
       </c>
@@ -5720,7 +5699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>26</v>
       </c>
@@ -5752,7 +5731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>26</v>
       </c>
@@ -5784,7 +5763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>26</v>
       </c>
@@ -5816,7 +5795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>26</v>
       </c>
@@ -5848,7 +5827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>26</v>
       </c>
@@ -5880,7 +5859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>26</v>
       </c>
@@ -5912,7 +5891,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>26</v>
       </c>
@@ -5944,7 +5923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>37</v>
       </c>
@@ -5976,7 +5955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>37</v>
       </c>
@@ -6008,9 +5987,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B164">
         <v>11</v>
@@ -6040,9 +6019,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B165">
         <v>11</v>
@@ -6072,9 +6051,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B166">
         <v>18</v>
@@ -6104,9 +6083,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B167">
         <v>18</v>
@@ -6136,7 +6115,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>38</v>
       </c>
@@ -6168,7 +6147,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>38</v>
       </c>
@@ -6200,7 +6179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>38</v>
       </c>
@@ -6232,7 +6211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>38</v>
       </c>
@@ -6264,7 +6243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>38</v>
       </c>
@@ -6296,7 +6275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>38</v>
       </c>
@@ -6328,9 +6307,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B174">
         <v>21</v>
@@ -6360,9 +6339,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B175">
         <v>21</v>
@@ -6392,9 +6371,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B176">
         <v>13</v>
@@ -6424,9 +6403,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B177">
         <v>12</v>
@@ -6456,7 +6435,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>18</v>
       </c>
@@ -6488,7 +6467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>18</v>
       </c>
@@ -6520,7 +6499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>18</v>
       </c>
@@ -6552,7 +6531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>18</v>
       </c>
@@ -6584,7 +6563,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>39</v>
       </c>
@@ -6616,7 +6595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>39</v>
       </c>
@@ -6648,9 +6627,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B184">
         <v>75</v>
@@ -6680,9 +6659,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B185">
         <v>74</v>
@@ -6712,9 +6691,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B186">
         <v>76</v>
@@ -6744,9 +6723,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B187">
         <v>76</v>
@@ -6776,9 +6755,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B188">
         <v>78</v>
@@ -6808,9 +6787,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B189">
         <v>78</v>
@@ -6840,9 +6819,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B190">
         <v>100</v>
@@ -6872,9 +6851,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B191">
         <v>100</v>
@@ -6904,7 +6883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>27</v>
       </c>
@@ -6936,7 +6915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>27</v>
       </c>
@@ -6968,7 +6947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>27</v>
       </c>
@@ -7000,7 +6979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>27</v>
       </c>
@@ -7032,7 +7011,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>27</v>
       </c>
@@ -7064,7 +7043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>27</v>
       </c>
@@ -7096,7 +7075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>27</v>
       </c>
@@ -7128,7 +7107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>27</v>
       </c>
@@ -7160,7 +7139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>27</v>
       </c>
@@ -7192,7 +7171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>27</v>
       </c>
@@ -7224,7 +7203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>27</v>
       </c>
@@ -7256,7 +7235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>27</v>
       </c>
@@ -7288,7 +7267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>28</v>
       </c>
@@ -7320,7 +7299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>28</v>
       </c>
@@ -7352,7 +7331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>28</v>
       </c>
@@ -7384,7 +7363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>28</v>
       </c>
@@ -7416,7 +7395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>28</v>
       </c>
@@ -7448,7 +7427,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>28</v>
       </c>
@@ -7480,7 +7459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>28</v>
       </c>
@@ -7512,7 +7491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>28</v>
       </c>
@@ -7544,7 +7523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>28</v>
       </c>
@@ -7576,7 +7555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>28</v>
       </c>
@@ -7608,7 +7587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>28</v>
       </c>
@@ -7640,7 +7619,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>28</v>
       </c>
@@ -7672,9 +7651,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B216">
         <v>24</v>
@@ -7704,9 +7683,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B217">
         <v>24</v>
@@ -7736,9 +7715,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B218">
         <v>15</v>
@@ -7768,9 +7747,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B219">
         <v>15</v>
@@ -7800,9 +7779,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B220">
         <v>12</v>
@@ -7832,9 +7811,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B221">
         <v>12</v>
@@ -7864,9 +7843,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B222">
         <v>48</v>
@@ -7896,9 +7875,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B223">
         <v>47</v>
@@ -7928,9 +7907,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B224">
         <v>87</v>
@@ -7960,9 +7939,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B225">
         <v>92</v>
@@ -7992,9 +7971,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B226">
         <v>91</v>
@@ -8024,9 +8003,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B227">
         <v>91</v>
@@ -8056,9 +8035,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B228">
         <v>72</v>
@@ -8088,9 +8067,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B229">
         <v>72</v>
@@ -8120,9 +8099,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B230">
         <v>82</v>
@@ -8152,9 +8131,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B231">
         <v>82</v>
@@ -8184,7 +8163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>20</v>
       </c>
@@ -8216,7 +8195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>20</v>
       </c>
@@ -8248,7 +8227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>40</v>
       </c>
@@ -8280,7 +8259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>40</v>
       </c>
@@ -8312,9 +8291,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B236">
         <v>8</v>
@@ -8344,9 +8323,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B237">
         <v>8</v>
@@ -8376,9 +8355,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B238">
         <v>14</v>
@@ -8408,9 +8387,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B239">
         <v>18</v>
@@ -8440,9 +8419,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B240">
         <v>123</v>
@@ -8472,9 +8451,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B241">
         <v>123</v>
@@ -8504,9 +8483,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B242">
         <v>24</v>
@@ -8536,9 +8515,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B243">
         <v>17</v>
@@ -8568,9 +8547,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B244">
         <v>113</v>
@@ -8600,9 +8579,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B245">
         <v>111</v>
@@ -8632,9 +8611,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B246">
         <v>127</v>
@@ -8664,9 +8643,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B247">
         <v>124</v>
@@ -8696,9 +8675,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B248">
         <v>11</v>
@@ -8728,9 +8707,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B249">
         <v>13</v>
@@ -8760,9 +8739,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B250">
         <v>96</v>
@@ -8792,9 +8771,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B251">
         <v>94</v>
@@ -8824,9 +8803,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B252">
         <v>21</v>
@@ -8856,9 +8835,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B253">
         <v>21</v>
@@ -8888,9 +8867,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B254">
         <v>213</v>
@@ -8920,9 +8899,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B255">
         <v>212</v>
@@ -8952,7 +8931,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>45</v>
       </c>
@@ -8984,7 +8963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>45</v>
       </c>
@@ -9016,9 +8995,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B258">
         <v>14</v>
@@ -9048,9 +9027,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B259">
         <v>14</v>
@@ -9080,9 +9059,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B260">
         <v>100</v>
@@ -9112,9 +9091,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B261">
         <v>103</v>
@@ -9144,9 +9123,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B262">
         <v>288</v>
@@ -9176,9 +9155,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B263">
         <v>287</v>
@@ -9208,7 +9187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="3" t="s">
         <v>21</v>
       </c>
@@ -9240,7 +9219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
         <v>21</v>
       </c>
@@ -9272,7 +9251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>21</v>
       </c>
@@ -9304,7 +9283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>21</v>
       </c>
@@ -9336,7 +9315,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>21</v>
       </c>
@@ -9368,7 +9347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>21</v>
       </c>
@@ -9400,7 +9379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>21</v>
       </c>
@@ -9432,7 +9411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>21</v>
       </c>
@@ -9464,9 +9443,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B272">
         <v>6</v>
@@ -9496,9 +9475,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B273">
         <v>6</v>
@@ -9528,9 +9507,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B274">
         <v>11</v>
@@ -9560,9 +9539,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B275">
         <v>11</v>
@@ -9592,9 +9571,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B276">
         <v>8</v>
@@ -9624,9 +9603,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B277">
         <v>8</v>
@@ -9656,9 +9635,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B278">
         <v>20</v>
@@ -9688,9 +9667,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B279">
         <v>20</v>
@@ -9720,7 +9699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="280" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
         <v>46</v>
       </c>
@@ -9752,7 +9731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
         <v>46</v>
       </c>
@@ -9784,7 +9763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
         <v>46</v>
       </c>
@@ -9816,7 +9795,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="283" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
         <v>46</v>
       </c>
@@ -9848,7 +9827,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="284" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
         <v>46</v>
       </c>
@@ -9880,7 +9859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
         <v>46</v>
       </c>
@@ -9912,7 +9891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
         <v>46</v>
       </c>
@@ -9944,7 +9923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="287" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
         <v>46</v>
       </c>
@@ -9976,9 +9955,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B288">
         <v>7</v>
@@ -10008,9 +9987,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B289">
         <v>7</v>
@@ -10040,9 +10019,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B290">
         <v>93</v>
@@ -10072,9 +10051,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B291">
         <v>93</v>
@@ -10104,9 +10083,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B292">
         <v>16</v>
@@ -10136,9 +10115,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B293">
         <v>16</v>
@@ -10168,9 +10147,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B294">
         <v>38</v>
@@ -10200,9 +10179,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B295">
         <v>38</v>
@@ -10232,9 +10211,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="296" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="B296">
         <v>12</v>
@@ -10264,9 +10243,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="297" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="B297">
         <v>13</v>
@@ -10296,9 +10275,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="298" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B298">
         <v>39</v>
@@ -10328,9 +10307,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="299" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B299">
         <v>39</v>
@@ -10360,9 +10339,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B300">
         <v>98</v>
@@ -10392,9 +10371,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B301">
         <v>98</v>
@@ -10424,9 +10403,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B302">
         <v>51</v>
@@ -10456,9 +10435,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B303">
         <v>50</v>
@@ -10488,9 +10467,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B304">
         <v>46</v>
@@ -10520,9 +10499,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B305">
         <v>46</v>
@@ -10552,9 +10531,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="306" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B306">
         <v>22</v>
@@ -10584,9 +10563,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B307">
         <v>23</v>
@@ -10616,9 +10595,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B308">
         <v>33</v>
@@ -10648,9 +10627,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B309">
         <v>34</v>
@@ -10680,9 +10659,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="310" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B310">
         <v>131</v>
@@ -10712,9 +10691,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="311" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B311">
         <v>135</v>
@@ -10744,9 +10723,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B312">
         <v>93</v>
@@ -10776,9 +10755,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B313">
         <v>87</v>
@@ -10808,9 +10787,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B314">
         <v>384</v>
@@ -10840,9 +10819,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B315">
         <v>382</v>
@@ -10872,9 +10851,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B316">
         <v>45</v>
@@ -10904,9 +10883,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B317">
         <v>46</v>
@@ -10936,9 +10915,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B318">
         <v>57</v>
@@ -10968,9 +10947,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B319">
         <v>57</v>
@@ -11000,9 +10979,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B320">
         <v>59</v>
@@ -11032,9 +11011,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B321">
         <v>59</v>
@@ -11064,9 +11043,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B322">
         <v>64</v>
@@ -11096,9 +11075,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B323">
         <v>64</v>
@@ -11128,9 +11107,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B324">
         <v>193</v>
@@ -11160,9 +11139,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B325">
         <v>192</v>
@@ -11192,9 +11171,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B326">
         <v>122</v>
@@ -11224,9 +11203,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B327">
         <v>120</v>
@@ -11256,9 +11235,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B328">
         <v>128</v>
@@ -11288,9 +11267,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B329">
         <v>129</v>
@@ -11320,7 +11299,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>29</v>
       </c>
@@ -11352,7 +11331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>29</v>
       </c>
@@ -11384,7 +11363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
         <v>29</v>
       </c>
@@ -11416,7 +11395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
         <v>29</v>
       </c>
@@ -11448,9 +11427,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B334">
         <v>101</v>
@@ -11480,9 +11459,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B335">
         <v>104</v>
@@ -11512,9 +11491,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B336">
         <v>9</v>
@@ -11544,9 +11523,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B337">
         <v>9</v>
@@ -11576,9 +11555,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B338">
         <v>8</v>
@@ -11608,9 +11587,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B339">
         <v>8</v>
@@ -11640,9 +11619,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B340">
         <v>8</v>
@@ -11672,9 +11651,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B341">
         <v>8</v>
@@ -11704,9 +11683,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B342">
         <v>13</v>
@@ -11736,9 +11715,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B343">
         <v>13</v>
@@ -11768,9 +11747,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B344">
         <v>112</v>
@@ -11800,9 +11779,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B345">
         <v>110</v>
@@ -11832,9 +11811,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B346">
         <v>127</v>
@@ -11864,9 +11843,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B347">
         <v>122</v>
@@ -11896,9 +11875,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B348">
         <v>141</v>
@@ -11928,9 +11907,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B349">
         <v>142</v>
@@ -11960,9 +11939,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B350">
         <v>23</v>
@@ -11992,9 +11971,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B351">
         <v>20</v>
@@ -12024,7 +12003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>30</v>
       </c>
@@ -12056,7 +12035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>30</v>
       </c>
@@ -12088,7 +12067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
         <v>30</v>
       </c>
@@ -12120,7 +12099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
         <v>30</v>
       </c>
@@ -12152,9 +12131,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B356">
         <v>10</v>
@@ -12184,9 +12163,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B357">
         <v>11</v>
@@ -12216,9 +12195,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B358">
         <v>13</v>
@@ -12248,9 +12227,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B359">
         <v>13</v>
@@ -12280,9 +12259,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B360">
         <v>23</v>
@@ -12312,9 +12291,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B361">
         <v>23</v>
@@ -12344,9 +12323,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B362">
         <v>25</v>
@@ -12376,9 +12355,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B363">
         <v>23</v>
@@ -12408,9 +12387,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B364">
         <v>25</v>
@@ -12440,9 +12419,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B365">
         <v>24</v>
@@ -12472,7 +12451,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>31</v>
       </c>
@@ -12504,7 +12483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>31</v>
       </c>
@@ -12536,7 +12515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
         <v>31</v>
       </c>
@@ -12568,7 +12547,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
         <v>31</v>
       </c>
@@ -12600,9 +12579,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B370">
         <v>10</v>
@@ -12632,9 +12611,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B371">
         <v>10</v>
@@ -12664,9 +12643,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B372">
         <v>61</v>
@@ -12696,9 +12675,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="B373">
         <v>58</v>
@@ -12728,9 +12707,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B374">
         <v>7</v>
@@ -12760,9 +12739,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B375">
         <v>7</v>
@@ -12792,9 +12771,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B376">
         <v>60</v>
@@ -12824,9 +12803,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B377">
         <v>60</v>
@@ -12856,9 +12835,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B378">
         <v>15</v>
@@ -12888,9 +12867,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B379">
         <v>15</v>
@@ -12920,9 +12899,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B380">
         <v>13</v>
@@ -12952,9 +12931,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B381">
         <v>14</v>
@@ -12984,9 +12963,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B382">
         <v>7</v>
@@ -13016,9 +12995,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B383">
         <v>7</v>
@@ -13048,9 +13027,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B384">
         <v>8</v>
@@ -13080,9 +13059,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B385">
         <v>8</v>
@@ -13112,9 +13091,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B386">
         <v>11</v>
@@ -13144,9 +13123,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B387">
         <v>11</v>
@@ -13176,7 +13155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
         <v>41</v>
       </c>
@@ -13208,7 +13187,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
         <v>41</v>
       </c>
@@ -13240,9 +13219,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B390">
         <v>19</v>
@@ -13272,9 +13251,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B391">
         <v>19</v>
@@ -13304,7 +13283,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
         <v>32</v>
       </c>
@@ -13336,7 +13315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
         <v>32</v>
       </c>
@@ -13368,7 +13347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
         <v>32</v>
       </c>
@@ -13400,7 +13379,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
         <v>32</v>
       </c>
@@ -13432,7 +13411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
         <v>32</v>
       </c>
@@ -13464,7 +13443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
         <v>32</v>
       </c>
@@ -13496,7 +13475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
         <v>32</v>
       </c>
@@ -13528,7 +13507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
         <v>32</v>
       </c>
@@ -13560,7 +13539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
         <v>32</v>
       </c>
@@ -13592,7 +13571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
         <v>32</v>
       </c>
@@ -13624,9 +13603,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="402" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B402">
         <v>32</v>
@@ -13656,9 +13635,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="403" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B403">
         <v>33</v>
@@ -13688,9 +13667,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B404">
         <v>6</v>
@@ -13720,9 +13699,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B405">
         <v>5</v>
@@ -13752,9 +13731,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B406">
         <v>158</v>
@@ -13784,9 +13763,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B407">
         <v>160</v>
@@ -13816,9 +13795,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B408">
         <v>9</v>
@@ -13848,9 +13827,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B409">
         <v>9</v>
@@ -13880,9 +13859,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B410">
         <v>217</v>
@@ -13912,9 +13891,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B411">
         <v>217</v>
@@ -13944,9 +13923,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B412">
         <v>17</v>
@@ -13976,9 +13955,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B413">
         <v>18</v>
@@ -14008,9 +13987,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B414">
         <v>47</v>
@@ -14040,9 +14019,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B415">
         <v>46</v>
@@ -14072,9 +14051,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B416">
         <v>18</v>
@@ -14104,9 +14083,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B417">
         <v>19</v>
@@ -14136,9 +14115,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B418">
         <v>56</v>
@@ -14168,9 +14147,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B419">
         <v>56</v>
@@ -14200,7 +14179,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
         <v>33</v>
       </c>
@@ -14232,7 +14211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
         <v>33</v>
       </c>
@@ -14264,7 +14243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
         <v>33</v>
       </c>
@@ -14296,7 +14275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
         <v>33</v>
       </c>
@@ -14328,7 +14307,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
         <v>33</v>
       </c>
@@ -14360,7 +14339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
         <v>33</v>
       </c>
@@ -14392,7 +14371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
         <v>33</v>
       </c>
@@ -14424,7 +14403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
         <v>33</v>
       </c>
@@ -14456,7 +14435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
         <v>33</v>
       </c>
@@ -14488,7 +14467,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
         <v>33</v>
       </c>
@@ -14520,9 +14499,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="B430">
         <v>8</v>
@@ -14552,9 +14531,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="B431">
         <v>8</v>
@@ -14584,7 +14563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
         <v>19</v>
       </c>
@@ -14616,7 +14595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
         <v>19</v>
       </c>
@@ -14648,7 +14627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
         <v>34</v>
       </c>
@@ -14680,7 +14659,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
         <v>34</v>
       </c>
@@ -14712,9 +14691,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B436">
         <v>16</v>
@@ -14744,9 +14723,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B437">
         <v>16</v>
@@ -14776,7 +14755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
         <v>42</v>
       </c>
@@ -14808,7 +14787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
         <v>42</v>
       </c>
@@ -14840,9 +14819,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B440">
         <v>8</v>
@@ -14872,9 +14851,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B441">
         <v>8</v>
@@ -14904,9 +14883,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A442" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B442">
         <v>75</v>
@@ -14936,9 +14915,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A443" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B443">
         <v>76</v>
@@ -14968,9 +14947,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B444">
         <v>148</v>
@@ -15000,9 +14979,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B445">
         <v>148</v>
@@ -15032,9 +15011,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B446">
         <v>112</v>
@@ -15064,9 +15043,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B447">
         <v>102</v>
@@ -15096,9 +15075,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B448">
         <v>124</v>
@@ -15128,9 +15107,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B449">
         <v>124</v>
@@ -15160,7 +15139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
         <v>14</v>
       </c>
@@ -15192,7 +15171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
         <v>14</v>
       </c>
@@ -15224,7 +15203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
         <v>14</v>
       </c>
@@ -15256,7 +15235,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
         <v>14</v>
       </c>
@@ -15288,7 +15267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
         <v>14</v>
       </c>
@@ -15320,7 +15299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
         <v>14</v>
       </c>
@@ -15352,7 +15331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
         <v>14</v>
       </c>
@@ -15384,7 +15363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
         <v>14</v>
       </c>
@@ -15416,9 +15395,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B458">
         <v>17</v>
@@ -15448,9 +15427,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B459">
         <v>17</v>
@@ -15480,9 +15459,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B460">
         <v>23</v>
@@ -15512,9 +15491,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A461" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B461">
         <v>24</v>
@@ -15544,7 +15523,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
         <v>14</v>
       </c>
@@ -15576,7 +15555,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
         <v>14</v>
       </c>
@@ -15608,7 +15587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
         <v>14</v>
       </c>
@@ -15640,7 +15619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
         <v>14</v>
       </c>
@@ -15672,7 +15651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
         <v>14</v>
       </c>
@@ -15704,7 +15683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
         <v>14</v>
       </c>
@@ -15736,7 +15715,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
         <v>15</v>
       </c>
@@ -15768,7 +15747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
         <v>15</v>
       </c>
@@ -15800,7 +15779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
         <v>15</v>
       </c>
@@ -15832,7 +15811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
         <v>15</v>
       </c>
@@ -15864,7 +15843,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
         <v>15</v>
       </c>
@@ -15896,7 +15875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
         <v>15</v>
       </c>
@@ -15928,7 +15907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
         <v>15</v>
       </c>
@@ -15960,7 +15939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
         <v>15</v>
       </c>
@@ -15992,9 +15971,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B476">
         <v>98</v>
@@ -16024,9 +16003,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B477">
         <v>97</v>
@@ -16056,9 +16035,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B478">
         <v>351</v>
@@ -16088,9 +16067,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A479" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B479">
         <v>349</v>
@@ -16120,7 +16099,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
         <v>15</v>
       </c>
@@ -16152,7 +16131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
         <v>15</v>
       </c>
@@ -16184,7 +16163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
         <v>15</v>
       </c>
@@ -16216,7 +16195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
         <v>15</v>
       </c>
@@ -16248,7 +16227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
         <v>15</v>
       </c>
@@ -16280,7 +16259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
         <v>15</v>
       </c>
@@ -16312,9 +16291,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B486">
         <v>22</v>
@@ -16344,9 +16323,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B487">
         <v>22</v>
@@ -16376,9 +16355,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B488">
         <v>20</v>
@@ -16408,9 +16387,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B489">
         <v>20</v>
@@ -16440,9 +16419,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B490">
         <v>22</v>
@@ -16472,9 +16451,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B491">
         <v>22</v>
@@ -16504,9 +16483,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B492">
         <v>99</v>
@@ -16536,9 +16515,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B493">
         <v>98</v>
@@ -16568,9 +16547,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B494">
         <v>55</v>
@@ -16600,9 +16579,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B495">
         <v>55</v>
@@ -16632,9 +16611,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B496">
         <v>58</v>
@@ -16664,9 +16643,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B497">
         <v>58</v>
@@ -16696,7 +16675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
         <v>35</v>
       </c>
@@ -16728,7 +16707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A499" s="4" t="s">
         <v>35</v>
       </c>
@@ -16760,7 +16739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A500" s="3" t="s">
         <v>35</v>
       </c>
@@ -16792,7 +16771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A501" s="3" t="s">
         <v>35</v>
       </c>
@@ -16824,7 +16803,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A502" s="4" t="s">
         <v>35</v>
       </c>
@@ -16856,7 +16835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A503" s="4" t="s">
         <v>35</v>
       </c>
@@ -16888,7 +16867,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A504" s="4" t="s">
         <v>35</v>
       </c>
@@ -16920,7 +16899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A505" s="4" t="s">
         <v>35</v>
       </c>
@@ -16952,7 +16931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A506" s="4" t="s">
         <v>35</v>
       </c>
@@ -16984,7 +16963,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
         <v>35</v>
       </c>
@@ -17016,9 +16995,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A508" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B508">
         <v>16</v>
@@ -17048,9 +17027,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A509" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B509">
         <v>16</v>
@@ -17080,9 +17059,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B510">
         <v>27</v>
@@ -17112,9 +17091,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A511" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B511">
         <v>27</v>
@@ -17144,9 +17123,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A512" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B512">
         <v>20</v>
@@ -17176,9 +17155,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A513" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B513">
         <v>21</v>
@@ -17208,9 +17187,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B514">
         <v>29</v>
@@ -17240,9 +17219,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A515" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B515">
         <v>29</v>
